--- a/t1_confection/B1_Model_Structure.xlsx
+++ b/t1_confection/B1_Model_Structure.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8FD0EE-6484-447E-A2E4-FE646E02FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2331D72-F651-45DB-A869-3C463F6BD79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="620">
   <si>
     <t>set</t>
   </si>
@@ -166,6 +166,9 @@
     <t>EXTT_CRU</t>
   </si>
   <si>
+    <t>All</t>
+  </si>
+  <si>
     <t>E0_CRU</t>
   </si>
   <si>
@@ -1933,10 +1936,16 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>DRY</t>
-  </si>
-  <si>
-    <t>RAIN</t>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Conversionld</t>
+  </si>
+  <si>
+    <t>Conversionlh</t>
+  </si>
+  <si>
+    <t>Conversionls</t>
   </si>
 </sst>
 </file>
@@ -2429,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2547,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -2581,19 +2590,19 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>615</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2601,16 +2610,13 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>616</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2618,13 +2624,13 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2632,13 +2638,13 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,13 +2652,13 @@
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2660,13 +2666,13 @@
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,13 +2680,13 @@
         <v>2024</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,13 +2694,13 @@
         <v>2025</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2702,13 +2708,13 @@
         <v>2026</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2716,13 +2722,13 @@
         <v>2027</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2730,13 +2736,13 @@
         <v>2028</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2744,13 +2750,13 @@
         <v>2029</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2758,13 +2764,13 @@
         <v>2030</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2772,13 +2778,13 @@
         <v>2031</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2786,13 +2792,13 @@
         <v>2032</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2800,13 +2806,13 @@
         <v>2033</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2814,13 +2820,13 @@
         <v>2034</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2828,13 +2834,13 @@
         <v>2035</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2842,13 +2848,13 @@
         <v>2036</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -2856,13 +2862,13 @@
         <v>2037</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -2870,13 +2876,13 @@
         <v>2038</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -2884,10 +2890,10 @@
         <v>2039</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -2895,10 +2901,10 @@
         <v>2040</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -2906,10 +2912,10 @@
         <v>2041</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -2917,10 +2923,10 @@
         <v>2042</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -2928,10 +2934,10 @@
         <v>2043</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -2939,10 +2945,10 @@
         <v>2044</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -2950,10 +2956,10 @@
         <v>2045</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -2961,10 +2967,10 @@
         <v>2046</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -2972,10 +2978,10 @@
         <v>2047</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -2983,10 +2989,10 @@
         <v>2048</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -2994,10 +3000,10 @@
         <v>2049</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3005,1733 +3011,1733 @@
         <v>2050</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E129" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E131" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E132" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E135" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E136" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E139" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E140" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E141" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E142" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E143" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E145" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E146" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E147" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E148" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E149" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E150" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E151" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E153" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E154" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E155" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E156" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E157" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E159" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E162" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E163" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E164" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E165" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
@@ -4745,10 +4751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8A1DB5-AB21-4E2D-94E4-FE18AAF65A94}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4778,134 +4784,148 @@
     <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="U1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="R2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="S2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="T2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="U2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="W2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="X2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AC2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AD2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AE2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5029,8 +5049,17 @@
         <f>+COUNTA(AE4:AE1048576)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -5121,8 +5150,17 @@
       <c r="AE4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -5207,8 +5245,17 @@
       <c r="AE5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>13</v>
       </c>
@@ -5273,7 +5320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>13</v>
       </c>
@@ -5293,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>13</v>
       </c>
@@ -5356,156 +5403,156 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="X1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AH1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="T2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="U2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="V2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="W2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="X2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Y2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AA2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AB2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AC2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AD2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AE2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AH2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AI2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AJ2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AK2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AP2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AQ2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AR2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -6177,13 +6224,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,4087 +6238,4087 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F210" s="11"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F214" s="11"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F219" s="11"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F223" s="11"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F224" s="11"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F225" s="11"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F226" s="11"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F227" s="11"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F228" s="11"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F230" s="11"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F231" s="11"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F232" s="11"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F234" s="11"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F235" s="11"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F236" s="11"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F237" s="11"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F238" s="11"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F243" s="11"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F244" s="11"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F248" s="11"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F249" s="11"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F250" s="11"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F251" s="11"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F252" s="11"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F253" s="11"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F254" s="11"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F255" s="11"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F256" s="11"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F259" s="11"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F260" s="11"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F264" s="11"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F265" s="11"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F267" s="11"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F268" s="11"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F269" s="11"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F271" s="11"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F272" s="11"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F273" s="11"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F274" s="11"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F275" s="11"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D281" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D282" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D286" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/t1_confection/B1_Model_Structure.xlsx
+++ b/t1_confection/B1_Model_Structure.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{B4B74CD5-98CA-4099-8BEE-8F5FA353F6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1444DF58-D80A-4F36-B7E8-E16BA968948B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2331D72-F651-45DB-A869-3C463F6BD79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="620">
   <si>
     <t>set</t>
   </si>
@@ -1934,13 +1934,25 @@
   </si>
   <si>
     <t>Transporte</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Conversionld</t>
+  </si>
+  <si>
+    <t>Conversionlh</t>
+  </si>
+  <si>
+    <t>Conversionls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2430,7 +2442,7 @@
       <selection activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -2445,7 +2457,7 @@
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2018</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2021</v>
       </c>
@@ -2635,7 +2647,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2022</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2023</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2024</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2025</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2026</v>
       </c>
@@ -2705,7 +2717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2027</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2028</v>
       </c>
@@ -2733,7 +2745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2029</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2030</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2031</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2032</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2033</v>
       </c>
@@ -2803,7 +2815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2034</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2035</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2036</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2037</v>
       </c>
@@ -2859,7 +2871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2038</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2039</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2040</v>
       </c>
@@ -2895,7 +2907,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2041</v>
       </c>
@@ -2906,7 +2918,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2042</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2043</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2044</v>
       </c>
@@ -2939,7 +2951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2045</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2046</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2047</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2048</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2049</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2050</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>114</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>116</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>118</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>120</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>122</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>124</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>126</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>128</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>130</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>132</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>134</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>136</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>138</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>140</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>142</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>144</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>146</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>148</v>
       </c>
@@ -3149,7 +3161,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>150</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>152</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>154</v>
       </c>
@@ -3173,7 +3185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>156</v>
       </c>
@@ -3181,7 +3193,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>158</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>160</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>162</v>
       </c>
@@ -3205,7 +3217,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>164</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>166</v>
       </c>
@@ -3221,7 +3233,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>135</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>170</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>172</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>174</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>176</v>
       </c>
@@ -3269,7 +3281,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="3:7">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>178</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>180</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="3:7">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>182</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>184</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>186</v>
       </c>
@@ -3309,7 +3321,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="3:7">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>188</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>190</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:7">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>192</v>
       </c>
@@ -3334,7 +3346,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="3:7">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>194</v>
       </c>
@@ -3342,7 +3354,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="3:7">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>196</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="3:7">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>198</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>200</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>202</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>204</v>
       </c>
@@ -3382,7 +3394,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>206</v>
       </c>
@@ -3390,7 +3402,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>208</v>
       </c>
@@ -3398,7 +3410,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>210</v>
       </c>
@@ -3406,7 +3418,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>212</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>214</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>216</v>
       </c>
@@ -3430,7 +3442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>218</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>220</v>
       </c>
@@ -3446,7 +3458,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>222</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>224</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>226</v>
       </c>
@@ -3470,7 +3482,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>228</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>230</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>232</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>234</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>236</v>
       </c>
@@ -3510,7 +3522,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>238</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>240</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>242</v>
       </c>
@@ -3534,7 +3546,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>244</v>
       </c>
@@ -3542,7 +3554,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>246</v>
       </c>
@@ -3550,7 +3562,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>248</v>
       </c>
@@ -3558,7 +3570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>250</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>252</v>
       </c>
@@ -3574,7 +3586,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>121</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>123</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>256</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>258</v>
       </c>
@@ -3606,7 +3618,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>260</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>262</v>
       </c>
@@ -3622,7 +3634,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>264</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>266</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>268</v>
       </c>
@@ -3646,7 +3658,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>270</v>
       </c>
@@ -3654,7 +3666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>272</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>274</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>276</v>
       </c>
@@ -3678,7 +3690,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>278</v>
       </c>
@@ -3686,7 +3698,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>280</v>
       </c>
@@ -3694,7 +3706,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>282</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>284</v>
       </c>
@@ -3710,7 +3722,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>286</v>
       </c>
@@ -3718,7 +3730,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>288</v>
       </c>
@@ -3726,7 +3738,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>290</v>
       </c>
@@ -3734,7 +3746,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>292</v>
       </c>
@@ -3742,7 +3754,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>294</v>
       </c>
@@ -3750,7 +3762,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>296</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>298</v>
       </c>
@@ -3766,7 +3778,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>300</v>
       </c>
@@ -3774,7 +3786,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>302</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>304</v>
       </c>
@@ -3790,7 +3802,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>306</v>
       </c>
@@ -3798,7 +3810,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>308</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>310</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>312</v>
       </c>
@@ -3822,7 +3834,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>314</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="140" spans="3:5">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>316</v>
       </c>
@@ -3838,7 +3850,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="3:5">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>318</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="142" spans="3:5">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>320</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="3:5">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>322</v>
       </c>
@@ -3862,7 +3874,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="3:5">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>324</v>
       </c>
@@ -3870,7 +3882,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>326</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>328</v>
       </c>
@@ -3886,7 +3898,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>330</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>332</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>334</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="150" spans="3:5">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>336</v>
       </c>
@@ -3918,7 +3930,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="3:5">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>338</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="152" spans="3:5">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>340</v>
       </c>
@@ -3934,7 +3946,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="153" spans="3:5">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>342</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="154" spans="3:5">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>344</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="155" spans="3:5">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>346</v>
       </c>
@@ -3958,7 +3970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="3:5">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>348</v>
       </c>
@@ -3966,7 +3978,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="3:5">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>350</v>
       </c>
@@ -3974,7 +3986,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="3:5">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>352</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="159" spans="3:5">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>354</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="3:5">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>356</v>
       </c>
@@ -3998,7 +4010,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="3:5">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>358</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="162" spans="3:5">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>360</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="3:5">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>362</v>
       </c>
@@ -4022,7 +4034,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="3:5">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>364</v>
       </c>
@@ -4030,7 +4042,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="165" spans="3:5">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>366</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="3:5">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>368</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="167" spans="3:5">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>370</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="168" spans="3:5">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>372</v>
       </c>
@@ -4062,7 +4074,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="169" spans="3:5">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>374</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="170" spans="3:5">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>376</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="171" spans="3:5">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>378</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="172" spans="3:5">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>380</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="173" spans="3:5">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>382</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="3:5">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>384</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="3:5">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>386</v>
       </c>
@@ -4118,7 +4130,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="3:5">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>388</v>
       </c>
@@ -4126,7 +4138,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="177" spans="3:5">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>390</v>
       </c>
@@ -4134,7 +4146,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="178" spans="3:5">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>392</v>
       </c>
@@ -4142,7 +4154,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="179" spans="3:5">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>394</v>
       </c>
@@ -4150,7 +4162,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="180" spans="3:5">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>396</v>
       </c>
@@ -4158,7 +4170,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="181" spans="3:5">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>398</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="3:5">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>400</v>
       </c>
@@ -4174,7 +4186,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="3:5">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>402</v>
       </c>
@@ -4182,7 +4194,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="3:5">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>404</v>
       </c>
@@ -4190,545 +4202,545 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="3:5">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>406</v>
       </c>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="3:5">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>407</v>
       </c>
       <c r="E186" s="11"/>
     </row>
-    <row r="187" spans="3:5">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>408</v>
       </c>
       <c r="E187" s="11"/>
     </row>
-    <row r="188" spans="3:5">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>409</v>
       </c>
       <c r="E188" s="11"/>
     </row>
-    <row r="189" spans="3:5">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>410</v>
       </c>
       <c r="E189" s="11"/>
     </row>
-    <row r="190" spans="3:5">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>411</v>
       </c>
       <c r="E190" s="11"/>
     </row>
-    <row r="191" spans="3:5">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>412</v>
       </c>
       <c r="E191" s="11"/>
     </row>
-    <row r="192" spans="3:5">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>413</v>
       </c>
       <c r="E192" s="11"/>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="3:3">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="3:3">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="3:3">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="198" spans="3:3">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="199" spans="3:3">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="3:3">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="3:3">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="205" spans="3:3">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="3:3">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="211" spans="3:3">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="11" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="11" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="11" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="11" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="11" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="11" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="11" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="11" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="11" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="11" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="11" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="11" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="11" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="11" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="11" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="241" spans="3:3">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="11" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="11" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="11" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="250" spans="3:3">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="11" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="252" spans="3:3">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="11" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="253" spans="3:3">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="11" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="254" spans="3:3">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="11" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="255" spans="3:3">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="11" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="256" spans="3:3">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="11" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="11" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="11" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="11" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="11" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="11" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="11" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="11" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="11" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="11" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="11" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="11" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="11" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="11" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="11" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="11" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="11" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="12" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="12" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="12" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="12" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="12" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="12" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="12" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="12" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="11"/>
     </row>
   </sheetData>
@@ -4739,13 +4751,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8A1DB5-AB21-4E2D-94E4-FE18AAF65A94}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
@@ -4772,10 +4784,12 @@
     <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>512</v>
       </c>
@@ -4803,8 +4817,11 @@
       <c r="AB1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>521</v>
       </c>
@@ -4898,8 +4915,17 @@
       <c r="AE2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5023,8 +5049,17 @@
         <f>+COUNTA(AE4:AE1048576)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -5115,8 +5150,17 @@
       <c r="AE4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -5201,8 +5245,17 @@
       <c r="AE5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>13</v>
       </c>
@@ -5267,7 +5320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>13</v>
       </c>
@@ -5287,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>13</v>
       </c>
@@ -5312,7 +5365,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5348,7 +5401,7 @@
     <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>512</v>
       </c>
@@ -5368,7 +5421,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>556</v>
       </c>
@@ -5502,7 +5555,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5679,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -5810,7 +5863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -5941,7 +5994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -6054,7 +6107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -6110,7 +6163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>13</v>
       </c>
@@ -6136,7 +6189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>13</v>
       </c>
@@ -6153,11 +6206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED10C39E-557A-4278-BB05-98C0EDA618C0}">
   <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -6166,7 +6219,7 @@
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6233,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6194,7 +6247,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -6208,7 +6261,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -6222,7 +6275,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -6236,7 +6289,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -6250,7 +6303,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -6264,7 +6317,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -6278,7 +6331,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -6292,7 +6345,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -6306,7 +6359,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -6320,7 +6373,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -6334,7 +6387,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -6348,7 +6401,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
@@ -6362,7 +6415,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -6376,7 +6429,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -6390,7 +6443,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -6404,7 +6457,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -6418,7 +6471,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -6432,7 +6485,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>81</v>
       </c>
@@ -6446,7 +6499,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -6460,7 +6513,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>87</v>
       </c>
@@ -6474,7 +6527,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -6488,7 +6541,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -6502,7 +6555,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -6516,7 +6569,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
@@ -6530,7 +6583,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>98</v>
       </c>
@@ -6544,7 +6597,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>100</v>
       </c>
@@ -6558,7 +6611,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>102</v>
       </c>
@@ -6572,7 +6625,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>104</v>
       </c>
@@ -6586,7 +6639,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
@@ -6600,7 +6653,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>108</v>
       </c>
@@ -6614,7 +6667,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>110</v>
       </c>
@@ -6628,7 +6681,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
@@ -6642,7 +6695,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -6656,7 +6709,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -6670,7 +6723,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
@@ -6684,7 +6737,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>120</v>
       </c>
@@ -6698,7 +6751,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>122</v>
       </c>
@@ -6712,7 +6765,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>124</v>
       </c>
@@ -6726,7 +6779,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>126</v>
       </c>
@@ -6740,7 +6793,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>128</v>
       </c>
@@ -6754,7 +6807,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -6768,7 +6821,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>132</v>
       </c>
@@ -6782,7 +6835,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>134</v>
       </c>
@@ -6796,7 +6849,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>136</v>
       </c>
@@ -6810,7 +6863,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>138</v>
       </c>
@@ -6824,7 +6877,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>140</v>
       </c>
@@ -6838,7 +6891,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
@@ -6852,7 +6905,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>144</v>
       </c>
@@ -6866,7 +6919,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>146</v>
       </c>
@@ -6880,7 +6933,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>148</v>
       </c>
@@ -6894,7 +6947,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>150</v>
       </c>
@@ -6908,7 +6961,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>152</v>
       </c>
@@ -6922,7 +6975,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>154</v>
       </c>
@@ -6936,7 +6989,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>156</v>
       </c>
@@ -6950,7 +7003,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>158</v>
       </c>
@@ -6964,7 +7017,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>160</v>
       </c>
@@ -6978,7 +7031,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -6992,7 +7045,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>164</v>
       </c>
@@ -7006,7 +7059,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>166</v>
       </c>
@@ -7020,7 +7073,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>133</v>
       </c>
@@ -7034,7 +7087,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>135</v>
       </c>
@@ -7048,7 +7101,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>170</v>
       </c>
@@ -7062,7 +7115,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>172</v>
       </c>
@@ -7076,7 +7129,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>174</v>
       </c>
@@ -7090,7 +7143,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>176</v>
       </c>
@@ -7104,7 +7157,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>178</v>
       </c>
@@ -7118,7 +7171,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>180</v>
       </c>
@@ -7132,7 +7185,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>182</v>
       </c>
@@ -7146,7 +7199,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>184</v>
       </c>
@@ -7160,7 +7213,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>186</v>
       </c>
@@ -7174,7 +7227,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>188</v>
       </c>
@@ -7188,7 +7241,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>190</v>
       </c>
@@ -7202,7 +7255,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>192</v>
       </c>
@@ -7216,7 +7269,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>194</v>
       </c>
@@ -7230,7 +7283,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>196</v>
       </c>
@@ -7244,7 +7297,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>198</v>
       </c>
@@ -7258,7 +7311,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>200</v>
       </c>
@@ -7272,7 +7325,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>202</v>
       </c>
@@ -7286,7 +7339,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>204</v>
       </c>
@@ -7300,7 +7353,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>206</v>
       </c>
@@ -7314,7 +7367,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>208</v>
       </c>
@@ -7328,7 +7381,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>210</v>
       </c>
@@ -7342,7 +7395,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>212</v>
       </c>
@@ -7356,7 +7409,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>214</v>
       </c>
@@ -7370,7 +7423,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>216</v>
       </c>
@@ -7384,7 +7437,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>218</v>
       </c>
@@ -7398,7 +7451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>220</v>
       </c>
@@ -7412,7 +7465,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>222</v>
       </c>
@@ -7426,7 +7479,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>224</v>
       </c>
@@ -7440,7 +7493,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>226</v>
       </c>
@@ -7454,7 +7507,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>238</v>
       </c>
@@ -7468,7 +7521,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>228</v>
       </c>
@@ -7482,7 +7535,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>230</v>
       </c>
@@ -7496,7 +7549,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>232</v>
       </c>
@@ -7510,7 +7563,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>234</v>
       </c>
@@ -7524,7 +7577,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>236</v>
       </c>
@@ -7538,7 +7591,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>240</v>
       </c>
@@ -7552,7 +7605,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>242</v>
       </c>
@@ -7566,7 +7619,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>244</v>
       </c>
@@ -7580,7 +7633,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>246</v>
       </c>
@@ -7594,7 +7647,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>248</v>
       </c>
@@ -7608,7 +7661,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>250</v>
       </c>
@@ -7622,7 +7675,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>252</v>
       </c>
@@ -7637,7 +7690,7 @@
       </c>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>121</v>
       </c>
@@ -7651,7 +7704,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>123</v>
       </c>
@@ -7665,7 +7718,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>256</v>
       </c>
@@ -7679,7 +7732,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>258</v>
       </c>
@@ -7693,7 +7746,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>260</v>
       </c>
@@ -7707,7 +7760,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>262</v>
       </c>
@@ -7721,7 +7774,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>264</v>
       </c>
@@ -7735,7 +7788,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>266</v>
       </c>
@@ -7749,7 +7802,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>268</v>
       </c>
@@ -7763,7 +7816,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>270</v>
       </c>
@@ -7777,7 +7830,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>272</v>
       </c>
@@ -7791,7 +7844,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>274</v>
       </c>
@@ -7805,7 +7858,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>276</v>
       </c>
@@ -7819,7 +7872,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>278</v>
       </c>
@@ -7833,7 +7886,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>280</v>
       </c>
@@ -7847,7 +7900,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>282</v>
       </c>
@@ -7861,7 +7914,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>284</v>
       </c>
@@ -7875,7 +7928,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>286</v>
       </c>
@@ -7889,7 +7942,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>288</v>
       </c>
@@ -7903,7 +7956,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>290</v>
       </c>
@@ -7917,7 +7970,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>292</v>
       </c>
@@ -7931,7 +7984,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>294</v>
       </c>
@@ -7945,7 +7998,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>296</v>
       </c>
@@ -7959,7 +8012,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>298</v>
       </c>
@@ -7973,7 +8026,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>300</v>
       </c>
@@ -7987,7 +8040,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>302</v>
       </c>
@@ -8001,7 +8054,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>304</v>
       </c>
@@ -8015,7 +8068,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>306</v>
       </c>
@@ -8029,7 +8082,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>308</v>
       </c>
@@ -8043,7 +8096,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>310</v>
       </c>
@@ -8057,7 +8110,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>312</v>
       </c>
@@ -8071,7 +8124,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>314</v>
       </c>
@@ -8085,7 +8138,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>316</v>
       </c>
@@ -8099,7 +8152,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>318</v>
       </c>
@@ -8113,7 +8166,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>320</v>
       </c>
@@ -8127,7 +8180,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>322</v>
       </c>
@@ -8141,7 +8194,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>324</v>
       </c>
@@ -8155,7 +8208,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>326</v>
       </c>
@@ -8169,7 +8222,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>328</v>
       </c>
@@ -8183,7 +8236,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>330</v>
       </c>
@@ -8197,7 +8250,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>332</v>
       </c>
@@ -8211,7 +8264,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>334</v>
       </c>
@@ -8225,7 +8278,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>336</v>
       </c>
@@ -8239,7 +8292,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>338</v>
       </c>
@@ -8253,7 +8306,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>340</v>
       </c>
@@ -8267,7 +8320,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>342</v>
       </c>
@@ -8281,7 +8334,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>344</v>
       </c>
@@ -8295,7 +8348,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>346</v>
       </c>
@@ -8309,7 +8362,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>348</v>
       </c>
@@ -8323,7 +8376,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>350</v>
       </c>
@@ -8337,7 +8390,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>352</v>
       </c>
@@ -8351,7 +8404,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>358</v>
       </c>
@@ -8365,7 +8418,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>354</v>
       </c>
@@ -8379,7 +8432,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>370</v>
       </c>
@@ -8393,7 +8446,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>356</v>
       </c>
@@ -8407,7 +8460,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>372</v>
       </c>
@@ -8421,7 +8474,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>362</v>
       </c>
@@ -8435,7 +8488,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>360</v>
       </c>
@@ -8449,7 +8502,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>364</v>
       </c>
@@ -8463,7 +8516,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>366</v>
       </c>
@@ -8477,7 +8530,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>368</v>
       </c>
@@ -8491,7 +8544,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>374</v>
       </c>
@@ -8505,7 +8558,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>376</v>
       </c>
@@ -8519,7 +8572,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>378</v>
       </c>
@@ -8533,7 +8586,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>380</v>
       </c>
@@ -8547,7 +8600,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>382</v>
       </c>
@@ -8561,7 +8614,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>384</v>
       </c>
@@ -8575,7 +8628,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>386</v>
       </c>
@@ -8589,7 +8642,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>392</v>
       </c>
@@ -8603,7 +8656,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>396</v>
       </c>
@@ -8617,7 +8670,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>388</v>
       </c>
@@ -8631,7 +8684,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>404</v>
       </c>
@@ -8645,7 +8698,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>390</v>
       </c>
@@ -8659,7 +8712,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>406</v>
       </c>
@@ -8673,7 +8726,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>394</v>
       </c>
@@ -8687,7 +8740,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>398</v>
       </c>
@@ -8701,7 +8754,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>400</v>
       </c>
@@ -8715,7 +8768,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>402</v>
       </c>
@@ -8729,7 +8782,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>407</v>
       </c>
@@ -8743,7 +8796,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>408</v>
       </c>
@@ -8757,7 +8810,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>409</v>
       </c>
@@ -8771,7 +8824,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>410</v>
       </c>
@@ -8785,7 +8838,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>411</v>
       </c>
@@ -8799,7 +8852,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>412</v>
       </c>
@@ -8813,7 +8866,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>413</v>
       </c>
@@ -8827,7 +8880,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>414</v>
       </c>
@@ -8841,7 +8894,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>415</v>
       </c>
@@ -8855,7 +8908,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>416</v>
       </c>
@@ -8869,7 +8922,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>417</v>
       </c>
@@ -8883,7 +8936,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>418</v>
       </c>
@@ -8897,7 +8950,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>419</v>
       </c>
@@ -8911,7 +8964,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>420</v>
       </c>
@@ -8925,7 +8978,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>424</v>
       </c>
@@ -8939,7 +8992,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>425</v>
       </c>
@@ -8953,7 +9006,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>421</v>
       </c>
@@ -8967,7 +9020,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>422</v>
       </c>
@@ -8981,7 +9034,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>423</v>
       </c>
@@ -8995,7 +9048,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>426</v>
       </c>
@@ -9009,7 +9062,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>427</v>
       </c>
@@ -9023,7 +9076,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>428</v>
       </c>
@@ -9037,7 +9090,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>429</v>
       </c>
@@ -9051,7 +9104,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>430</v>
       </c>
@@ -9065,7 +9118,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>431</v>
       </c>
@@ -9080,7 +9133,7 @@
       </c>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>432</v>
       </c>
@@ -9095,7 +9148,7 @@
       </c>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>433</v>
       </c>
@@ -9110,7 +9163,7 @@
       </c>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>434</v>
       </c>
@@ -9125,7 +9178,7 @@
       </c>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>435</v>
       </c>
@@ -9140,7 +9193,7 @@
       </c>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>436</v>
       </c>
@@ -9155,7 +9208,7 @@
       </c>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>437</v>
       </c>
@@ -9170,7 +9223,7 @@
       </c>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>438</v>
       </c>
@@ -9185,7 +9238,7 @@
       </c>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>439</v>
       </c>
@@ -9200,7 +9253,7 @@
       </c>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>440</v>
       </c>
@@ -9215,7 +9268,7 @@
       </c>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>441</v>
       </c>
@@ -9230,7 +9283,7 @@
       </c>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>442</v>
       </c>
@@ -9245,7 +9298,7 @@
       </c>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>443</v>
       </c>
@@ -9260,7 +9313,7 @@
       </c>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>444</v>
       </c>
@@ -9275,7 +9328,7 @@
       </c>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>445</v>
       </c>
@@ -9290,7 +9343,7 @@
       </c>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>446</v>
       </c>
@@ -9305,7 +9358,7 @@
       </c>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>447</v>
       </c>
@@ -9320,7 +9373,7 @@
       </c>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>448</v>
       </c>
@@ -9335,7 +9388,7 @@
       </c>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>449</v>
       </c>
@@ -9350,7 +9403,7 @@
       </c>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>450</v>
       </c>
@@ -9365,7 +9418,7 @@
       </c>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>451</v>
       </c>
@@ -9380,7 +9433,7 @@
       </c>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>452</v>
       </c>
@@ -9395,7 +9448,7 @@
       </c>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>453</v>
       </c>
@@ -9410,7 +9463,7 @@
       </c>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>454</v>
       </c>
@@ -9425,7 +9478,7 @@
       </c>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>455</v>
       </c>
@@ -9440,7 +9493,7 @@
       </c>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>456</v>
       </c>
@@ -9455,7 +9508,7 @@
       </c>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>457</v>
       </c>
@@ -9470,7 +9523,7 @@
       </c>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>458</v>
       </c>
@@ -9485,7 +9538,7 @@
       </c>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>459</v>
       </c>
@@ -9500,7 +9553,7 @@
       </c>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>460</v>
       </c>
@@ -9515,7 +9568,7 @@
       </c>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>461</v>
       </c>
@@ -9530,7 +9583,7 @@
       </c>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>462</v>
       </c>
@@ -9545,7 +9598,7 @@
       </c>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>463</v>
       </c>
@@ -9560,7 +9613,7 @@
       </c>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>464</v>
       </c>
@@ -9575,7 +9628,7 @@
       </c>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>465</v>
       </c>
@@ -9590,7 +9643,7 @@
       </c>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>466</v>
       </c>
@@ -9605,7 +9658,7 @@
       </c>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>467</v>
       </c>
@@ -9620,7 +9673,7 @@
       </c>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>468</v>
       </c>
@@ -9635,7 +9688,7 @@
       </c>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>469</v>
       </c>
@@ -9650,7 +9703,7 @@
       </c>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>470</v>
       </c>
@@ -9665,7 +9718,7 @@
       </c>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>471</v>
       </c>
@@ -9680,7 +9733,7 @@
       </c>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>472</v>
       </c>
@@ -9695,7 +9748,7 @@
       </c>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>473</v>
       </c>
@@ -9710,7 +9763,7 @@
       </c>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>474</v>
       </c>
@@ -9725,7 +9778,7 @@
       </c>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>475</v>
       </c>
@@ -9740,7 +9793,7 @@
       </c>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>476</v>
       </c>
@@ -9755,7 +9808,7 @@
       </c>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>477</v>
       </c>
@@ -9770,7 +9823,7 @@
       </c>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>478</v>
       </c>
@@ -9785,7 +9838,7 @@
       </c>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>479</v>
       </c>
@@ -9800,7 +9853,7 @@
       </c>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>480</v>
       </c>
@@ -9815,7 +9868,7 @@
       </c>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>481</v>
       </c>
@@ -9830,7 +9883,7 @@
       </c>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>482</v>
       </c>
@@ -9845,7 +9898,7 @@
       </c>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>483</v>
       </c>
@@ -9860,7 +9913,7 @@
       </c>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>484</v>
       </c>
@@ -9875,7 +9928,7 @@
       </c>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>485</v>
       </c>
@@ -9890,7 +9943,7 @@
       </c>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>486</v>
       </c>
@@ -9905,7 +9958,7 @@
       </c>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>487</v>
       </c>
@@ -9920,7 +9973,7 @@
       </c>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>488</v>
       </c>
@@ -9935,7 +9988,7 @@
       </c>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>489</v>
       </c>
@@ -9950,7 +10003,7 @@
       </c>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>490</v>
       </c>
@@ -9965,7 +10018,7 @@
       </c>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>491</v>
       </c>
@@ -9980,7 +10033,7 @@
       </c>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>492</v>
       </c>
@@ -9995,7 +10048,7 @@
       </c>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>493</v>
       </c>
@@ -10010,7 +10063,7 @@
       </c>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>494</v>
       </c>
@@ -10025,7 +10078,7 @@
       </c>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>495</v>
       </c>
@@ -10040,7 +10093,7 @@
       </c>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>496</v>
       </c>
@@ -10055,7 +10108,7 @@
       </c>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>497</v>
       </c>
@@ -10070,7 +10123,7 @@
       </c>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>498</v>
       </c>
@@ -10085,7 +10138,7 @@
       </c>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>499</v>
       </c>
@@ -10100,7 +10153,7 @@
       </c>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>503</v>
       </c>
@@ -10114,7 +10167,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>504</v>
       </c>
@@ -10128,7 +10181,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>508</v>
       </c>
@@ -10142,7 +10195,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>502</v>
       </c>
@@ -10156,7 +10209,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>500</v>
       </c>
@@ -10170,7 +10223,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>501</v>
       </c>
@@ -10184,7 +10237,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>505</v>
       </c>
@@ -10198,7 +10251,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>506</v>
       </c>
@@ -10212,7 +10265,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>507</v>
       </c>
@@ -10226,7 +10279,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>509</v>
       </c>
@@ -10240,7 +10293,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>510</v>
       </c>
@@ -10254,7 +10307,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>511</v>
       </c>
@@ -10276,6 +10329,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -10283,15 +10345,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10526,13 +10579,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26906A94-98DE-451B-A153-86512FA7C464}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26906A94-98DE-451B-A153-86512FA7C464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/t1_confection/B1_Model_Structure.xlsx
+++ b/t1_confection/B1_Model_Structure.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2331D72-F651-45DB-A869-3C463F6BD79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E57FA-C90A-413C-94FF-004CA5589F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2490" windowWidth="21630" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="621">
   <si>
     <t>set</t>
   </si>
@@ -166,9 +166,6 @@
     <t>EXTT_CRU</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>E0_CRU</t>
   </si>
   <si>
@@ -1946,6 +1943,12 @@
   </si>
   <si>
     <t>Conversionls</t>
+  </si>
+  <si>
+    <t>DRY</t>
+  </si>
+  <si>
+    <t>RAIN</t>
   </si>
 </sst>
 </file>
@@ -2438,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L291"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F289" sqref="F289"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -2567,15 +2570,15 @@
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -2590,19 +2593,28 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,13 +2622,22 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2624,13 +2645,16 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
+      <c r="I6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2638,13 +2662,13 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2652,13 +2676,13 @@
         <v>2022</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2666,13 +2690,13 @@
         <v>2023</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2680,13 +2704,13 @@
         <v>2024</v>
       </c>
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2694,13 +2718,13 @@
         <v>2025</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2708,13 +2732,13 @@
         <v>2026</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,13 +2746,13 @@
         <v>2027</v>
       </c>
       <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2736,13 +2760,13 @@
         <v>2028</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2750,13 +2774,13 @@
         <v>2029</v>
       </c>
       <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2764,13 +2788,13 @@
         <v>2030</v>
       </c>
       <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2778,13 +2802,13 @@
         <v>2031</v>
       </c>
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2792,13 +2816,13 @@
         <v>2032</v>
       </c>
       <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2806,13 +2830,13 @@
         <v>2033</v>
       </c>
       <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2820,13 +2844,13 @@
         <v>2034</v>
       </c>
       <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2834,13 +2858,13 @@
         <v>2035</v>
       </c>
       <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2848,13 +2872,13 @@
         <v>2036</v>
       </c>
       <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
         <v>81</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>82</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -2862,13 +2886,13 @@
         <v>2037</v>
       </c>
       <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -2876,13 +2900,13 @@
         <v>2038</v>
       </c>
       <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -2890,10 +2914,10 @@
         <v>2039</v>
       </c>
       <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
         <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -2901,10 +2925,10 @@
         <v>2040</v>
       </c>
       <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -2912,10 +2936,10 @@
         <v>2041</v>
       </c>
       <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
         <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -2923,10 +2947,10 @@
         <v>2042</v>
       </c>
       <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
         <v>96</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -2934,10 +2958,10 @@
         <v>2043</v>
       </c>
       <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -2945,10 +2969,10 @@
         <v>2044</v>
       </c>
       <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
         <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -2956,10 +2980,10 @@
         <v>2045</v>
       </c>
       <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
         <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -2967,10 +2991,10 @@
         <v>2046</v>
       </c>
       <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
         <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -2978,10 +3002,10 @@
         <v>2047</v>
       </c>
       <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
         <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -2989,10 +3013,10 @@
         <v>2048</v>
       </c>
       <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
         <v>108</v>
-      </c>
-      <c r="E34" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -3000,10 +3024,10 @@
         <v>2049</v>
       </c>
       <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
         <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3011,1733 +3035,1733 @@
         <v>2050</v>
       </c>
       <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
         <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
         <v>114</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
         <v>116</v>
-      </c>
-      <c r="E38" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
         <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
         <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" t="s">
         <v>122</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
         <v>124</v>
-      </c>
-      <c r="E42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
         <v>126</v>
-      </c>
-      <c r="E43" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
         <v>128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
         <v>130</v>
-      </c>
-      <c r="E45" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
         <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
         <v>134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
         <v>136</v>
-      </c>
-      <c r="E48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
         <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
         <v>140</v>
-      </c>
-      <c r="E50" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
         <v>142</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
         <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
         <v>146</v>
-      </c>
-      <c r="E53" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
         <v>148</v>
-      </c>
-      <c r="E54" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
         <v>150</v>
-      </c>
-      <c r="E55" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s">
         <v>152</v>
-      </c>
-      <c r="E56" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" t="s">
         <v>154</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" t="s">
         <v>156</v>
-      </c>
-      <c r="E58" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
         <v>158</v>
-      </c>
-      <c r="E59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
         <v>160</v>
-      </c>
-      <c r="E60" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
         <v>162</v>
-      </c>
-      <c r="E61" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
         <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" t="s">
         <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" t="s">
         <v>170</v>
-      </c>
-      <c r="E66" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
         <v>172</v>
-      </c>
-      <c r="E67" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" t="s">
         <v>174</v>
-      </c>
-      <c r="E68" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" t="s">
         <v>176</v>
-      </c>
-      <c r="E69" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" t="s">
         <v>178</v>
-      </c>
-      <c r="E70" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" t="s">
         <v>180</v>
-      </c>
-      <c r="E71" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" t="s">
         <v>182</v>
-      </c>
-      <c r="E72" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" t="s">
         <v>184</v>
-      </c>
-      <c r="E73" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" t="s">
         <v>186</v>
-      </c>
-      <c r="E74" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" t="s">
         <v>188</v>
-      </c>
-      <c r="E75" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" t="s">
         <v>190</v>
-      </c>
-      <c r="E76" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
         <v>192</v>
-      </c>
-      <c r="E77" t="s">
-        <v>193</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
         <v>194</v>
-      </c>
-      <c r="E78" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" t="s">
         <v>196</v>
-      </c>
-      <c r="E79" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
         <v>198</v>
-      </c>
-      <c r="E80" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" t="s">
         <v>200</v>
-      </c>
-      <c r="E81" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" t="s">
         <v>202</v>
-      </c>
-      <c r="E82" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" t="s">
         <v>204</v>
-      </c>
-      <c r="E83" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
         <v>206</v>
-      </c>
-      <c r="E84" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" t="s">
         <v>208</v>
-      </c>
-      <c r="E85" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" t="s">
         <v>210</v>
-      </c>
-      <c r="E86" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" t="s">
         <v>212</v>
-      </c>
-      <c r="E87" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
+        <v>213</v>
+      </c>
+      <c r="E88" t="s">
         <v>214</v>
-      </c>
-      <c r="E88" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" t="s">
         <v>216</v>
-      </c>
-      <c r="E89" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" t="s">
         <v>218</v>
-      </c>
-      <c r="E90" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" t="s">
         <v>220</v>
-      </c>
-      <c r="E91" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" t="s">
         <v>222</v>
-      </c>
-      <c r="E92" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" t="s">
         <v>224</v>
-      </c>
-      <c r="E93" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" t="s">
         <v>226</v>
-      </c>
-      <c r="E94" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" t="s">
         <v>228</v>
-      </c>
-      <c r="E95" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" t="s">
         <v>230</v>
-      </c>
-      <c r="E96" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" t="s">
         <v>232</v>
-      </c>
-      <c r="E97" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" t="s">
         <v>234</v>
-      </c>
-      <c r="E98" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" t="s">
         <v>236</v>
-      </c>
-      <c r="E99" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" t="s">
         <v>238</v>
-      </c>
-      <c r="E100" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" t="s">
         <v>240</v>
-      </c>
-      <c r="E101" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" t="s">
         <v>242</v>
-      </c>
-      <c r="E102" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" t="s">
         <v>244</v>
-      </c>
-      <c r="E103" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
+        <v>245</v>
+      </c>
+      <c r="E104" t="s">
         <v>246</v>
-      </c>
-      <c r="E104" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
+        <v>247</v>
+      </c>
+      <c r="E105" t="s">
         <v>248</v>
-      </c>
-      <c r="E105" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" t="s">
         <v>250</v>
-      </c>
-      <c r="E106" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" t="s">
         <v>252</v>
-      </c>
-      <c r="E107" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" t="s">
         <v>256</v>
-      </c>
-      <c r="E110" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E111" t="s">
         <v>258</v>
-      </c>
-      <c r="E111" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
+        <v>259</v>
+      </c>
+      <c r="E112" t="s">
         <v>260</v>
-      </c>
-      <c r="E112" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
+        <v>261</v>
+      </c>
+      <c r="E113" t="s">
         <v>262</v>
-      </c>
-      <c r="E113" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114" t="s">
         <v>264</v>
-      </c>
-      <c r="E114" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
+        <v>265</v>
+      </c>
+      <c r="E115" t="s">
         <v>266</v>
-      </c>
-      <c r="E115" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
+        <v>267</v>
+      </c>
+      <c r="E116" t="s">
         <v>268</v>
-      </c>
-      <c r="E116" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
+        <v>269</v>
+      </c>
+      <c r="E117" t="s">
         <v>270</v>
-      </c>
-      <c r="E117" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" t="s">
         <v>272</v>
-      </c>
-      <c r="E118" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" t="s">
         <v>274</v>
-      </c>
-      <c r="E119" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
+        <v>275</v>
+      </c>
+      <c r="E120" t="s">
         <v>276</v>
-      </c>
-      <c r="E120" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" t="s">
         <v>278</v>
-      </c>
-      <c r="E121" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
+        <v>279</v>
+      </c>
+      <c r="E122" t="s">
         <v>280</v>
-      </c>
-      <c r="E122" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" t="s">
         <v>282</v>
-      </c>
-      <c r="E123" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" t="s">
         <v>284</v>
-      </c>
-      <c r="E124" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
+        <v>285</v>
+      </c>
+      <c r="E125" t="s">
         <v>286</v>
-      </c>
-      <c r="E125" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
+        <v>287</v>
+      </c>
+      <c r="E126" t="s">
         <v>288</v>
-      </c>
-      <c r="E126" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" t="s">
         <v>290</v>
-      </c>
-      <c r="E127" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
+        <v>291</v>
+      </c>
+      <c r="E128" t="s">
         <v>292</v>
-      </c>
-      <c r="E128" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
+        <v>293</v>
+      </c>
+      <c r="E129" t="s">
         <v>294</v>
-      </c>
-      <c r="E129" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
+        <v>295</v>
+      </c>
+      <c r="E130" t="s">
         <v>296</v>
-      </c>
-      <c r="E130" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
+        <v>297</v>
+      </c>
+      <c r="E131" t="s">
         <v>298</v>
-      </c>
-      <c r="E131" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
+        <v>299</v>
+      </c>
+      <c r="E132" t="s">
         <v>300</v>
-      </c>
-      <c r="E132" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
+        <v>301</v>
+      </c>
+      <c r="E133" t="s">
         <v>302</v>
-      </c>
-      <c r="E133" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
+        <v>303</v>
+      </c>
+      <c r="E134" t="s">
         <v>304</v>
-      </c>
-      <c r="E134" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
+        <v>305</v>
+      </c>
+      <c r="E135" t="s">
         <v>306</v>
-      </c>
-      <c r="E135" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
+        <v>307</v>
+      </c>
+      <c r="E136" t="s">
         <v>308</v>
-      </c>
-      <c r="E136" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
+        <v>309</v>
+      </c>
+      <c r="E137" t="s">
         <v>310</v>
-      </c>
-      <c r="E137" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
+        <v>311</v>
+      </c>
+      <c r="E138" t="s">
         <v>312</v>
-      </c>
-      <c r="E138" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
+        <v>313</v>
+      </c>
+      <c r="E139" t="s">
         <v>314</v>
-      </c>
-      <c r="E139" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
+        <v>315</v>
+      </c>
+      <c r="E140" t="s">
         <v>316</v>
-      </c>
-      <c r="E140" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141" t="s">
         <v>318</v>
-      </c>
-      <c r="E141" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
+        <v>319</v>
+      </c>
+      <c r="E142" t="s">
         <v>320</v>
-      </c>
-      <c r="E142" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
+        <v>321</v>
+      </c>
+      <c r="E143" t="s">
         <v>322</v>
-      </c>
-      <c r="E143" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" t="s">
         <v>324</v>
-      </c>
-      <c r="E144" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145" t="s">
         <v>326</v>
-      </c>
-      <c r="E145" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
+        <v>327</v>
+      </c>
+      <c r="E146" t="s">
         <v>328</v>
-      </c>
-      <c r="E146" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
+        <v>329</v>
+      </c>
+      <c r="E147" t="s">
         <v>330</v>
-      </c>
-      <c r="E147" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
+        <v>331</v>
+      </c>
+      <c r="E148" t="s">
         <v>332</v>
-      </c>
-      <c r="E148" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
+        <v>333</v>
+      </c>
+      <c r="E149" t="s">
         <v>334</v>
-      </c>
-      <c r="E149" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
+        <v>335</v>
+      </c>
+      <c r="E150" t="s">
         <v>336</v>
-      </c>
-      <c r="E150" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
+        <v>337</v>
+      </c>
+      <c r="E151" t="s">
         <v>338</v>
-      </c>
-      <c r="E151" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
+        <v>339</v>
+      </c>
+      <c r="E152" t="s">
         <v>340</v>
-      </c>
-      <c r="E152" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" t="s">
         <v>342</v>
-      </c>
-      <c r="E153" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
+        <v>343</v>
+      </c>
+      <c r="E154" t="s">
         <v>344</v>
-      </c>
-      <c r="E154" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" t="s">
         <v>346</v>
-      </c>
-      <c r="E155" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
+        <v>347</v>
+      </c>
+      <c r="E156" t="s">
         <v>348</v>
-      </c>
-      <c r="E156" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
+        <v>349</v>
+      </c>
+      <c r="E157" t="s">
         <v>350</v>
-      </c>
-      <c r="E157" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
+        <v>351</v>
+      </c>
+      <c r="E158" t="s">
         <v>352</v>
-      </c>
-      <c r="E158" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
+        <v>353</v>
+      </c>
+      <c r="E159" t="s">
         <v>354</v>
-      </c>
-      <c r="E159" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
+        <v>355</v>
+      </c>
+      <c r="E160" t="s">
         <v>356</v>
-      </c>
-      <c r="E160" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" t="s">
         <v>358</v>
-      </c>
-      <c r="E161" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
+        <v>359</v>
+      </c>
+      <c r="E162" t="s">
         <v>360</v>
-      </c>
-      <c r="E162" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" t="s">
         <v>362</v>
-      </c>
-      <c r="E163" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
+        <v>363</v>
+      </c>
+      <c r="E164" t="s">
         <v>364</v>
-      </c>
-      <c r="E164" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" t="s">
         <v>366</v>
-      </c>
-      <c r="E165" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
+        <v>367</v>
+      </c>
+      <c r="E166" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
+        <v>369</v>
+      </c>
+      <c r="E167" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
+        <v>371</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
+        <v>373</v>
+      </c>
+      <c r="E169" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
+        <v>375</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
+        <v>377</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
+        <v>379</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
+        <v>381</v>
+      </c>
+      <c r="E173" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
+        <v>383</v>
+      </c>
+      <c r="E174" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
+        <v>385</v>
+      </c>
+      <c r="E175" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
+        <v>387</v>
+      </c>
+      <c r="E176" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
+        <v>389</v>
+      </c>
+      <c r="E177" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
+        <v>391</v>
+      </c>
+      <c r="E178" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
+        <v>393</v>
+      </c>
+      <c r="E179" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
+        <v>395</v>
+      </c>
+      <c r="E180" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
+        <v>397</v>
+      </c>
+      <c r="E181" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
+        <v>399</v>
+      </c>
+      <c r="E182" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
+        <v>401</v>
+      </c>
+      <c r="E183" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E184" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
@@ -4753,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8A1DB5-AB21-4E2D-94E4-FE18AAF65A94}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
@@ -4791,138 +4815,138 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" t="s">
         <v>512</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>513</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>514</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>515</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>516</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>517</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>518</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>519</v>
       </c>
-      <c r="AB1" t="s">
-        <v>520</v>
-      </c>
       <c r="AF1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" t="s">
         <v>521</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>522</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>523</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>524</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>525</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>526</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>527</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>528</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>529</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>530</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>531</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>532</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>533</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>534</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>535</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>536</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>537</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>538</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>539</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>540</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>541</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>542</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>543</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>545</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>547</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>548</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>549</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>550</v>
       </c>
-      <c r="AE2" t="s">
-        <v>551</v>
-      </c>
       <c r="AF2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG2" t="s">
+        <v>616</v>
+      </c>
+      <c r="AH2" t="s">
         <v>617</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -5403,156 +5427,156 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" t="s">
         <v>552</v>
       </c>
-      <c r="H1" t="s">
+      <c r="X1" t="s">
         <v>553</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>554</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" t="s">
         <v>556</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>557</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>558</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>559</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>560</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>561</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>562</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>563</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>564</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>565</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>566</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>567</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>568</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>569</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>570</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>571</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>572</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>573</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>574</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>575</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>576</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>577</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>578</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>579</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>580</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>581</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>582</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>583</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>584</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>585</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>586</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>587</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>588</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>589</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>590</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>591</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>592</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>593</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>594</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>595</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>596</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>597</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>598</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -6224,13 +6248,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6238,4087 +6262,4087 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>606</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>606</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>606</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>606</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>606</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D106" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D108" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D109" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D110" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D112" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D113" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D114" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D115" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D116" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D117" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D118" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D120" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D123" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D125" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D129" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D130" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C132" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D144" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D147" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D149" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D152" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D154" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D155" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D156" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D191" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D192" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D192" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D193" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F210" s="11"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F214" s="11"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F219" s="11"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F223" s="11"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F224" s="11"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F225" s="11"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F226" s="11"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F227" s="11"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F228" s="11"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F230" s="11"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F231" s="11"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F232" s="11"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F234" s="11"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F235" s="11"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F236" s="11"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F237" s="11"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F238" s="11"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F243" s="11"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F244" s="11"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F248" s="11"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F249" s="11"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F250" s="11"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F251" s="11"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F252" s="11"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F253" s="11"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F254" s="11"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F255" s="11"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F256" s="11"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F259" s="11"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F260" s="11"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F264" s="11"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F265" s="11"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F267" s="11"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F268" s="11"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F269" s="11"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F271" s="11"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F272" s="11"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F273" s="11"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F274" s="11"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F275" s="11"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D277" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D278" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D279" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D280" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D280" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D281" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D281" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D282" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D282" s="19" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D283" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D284" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D285" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D285" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D286" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D287" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D287" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D288" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D288" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -10329,15 +10353,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -10345,6 +10360,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10579,19 +10603,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8338AF-8AC2-43D7-8F90-72D0B1807480}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E67016B-2BB4-478C-AF15-1A9FF8562EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
